--- a/output/excel/seo.xlsx
+++ b/output/excel/seo.xlsx
@@ -417,275 +417,125 @@
       <c r="A2" t="str">
         <v>title.prefix</v>
       </c>
-      <c r="B2" t="str">
-        <v>호텔에삶</v>
-      </c>
-      <c r="C2" t="str">
-        <v>호텔에삶</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
         <v>title.subfix</v>
       </c>
-      <c r="B3" t="str">
-        <v>호텔에삶 | {{subfix}}</v>
-      </c>
-      <c r="C3" t="str">
-        <v>호텔에삶 | {{subfix}}</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
         <v>title.default</v>
       </c>
-      <c r="B4" t="str">
-        <v>호텔에삶 | 호텔 한달살기, 장기투숙, 레지던스 호텔, 서울 호캉스</v>
-      </c>
-      <c r="C4" t="str">
-        <v>호텔에삶 | 호텔 한달살기, 장기투숙, 레지던스 호텔, 서울 호캉스</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
         <v>title.search.all</v>
       </c>
-      <c r="B5" t="str">
-        <v>서울/부산/여수/경기/여수 장기숙박 호텔 찾기</v>
-      </c>
-      <c r="C5" t="str">
-        <v>서울/부산/여수/경기/여수 장기숙박 호텔 찾기</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
         <v>title.search.seoul</v>
       </c>
-      <c r="B6" t="str">
-        <v>서울 장기투숙 호텔 찾기</v>
-      </c>
-      <c r="C6" t="str">
-        <v>서울 장기투숙 호텔 찾기</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
         <v>title.search.vietnam</v>
       </c>
-      <c r="B7" t="str">
-        <v>베트남 한달살기 호텔 찾기</v>
-      </c>
-      <c r="C7" t="str">
-        <v>베트남 한달살기 호텔 찾기</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
         <v>title.search.jeju</v>
       </c>
-      <c r="B8" t="str">
-        <v>제주 한달살기 호텔 찾기</v>
-      </c>
-      <c r="C8" t="str">
-        <v>제주 한달살기 호텔 찾기</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
         <v>title.search.metro</v>
       </c>
-      <c r="B9" t="str">
-        <v>수도권 장기투숙 호텔 찾기</v>
-      </c>
-      <c r="C9" t="str">
-        <v>수도권 장기투숙 호텔 찾기</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
         <v>title.search.gyeongsang</v>
       </c>
-      <c r="B10" t="str">
-        <v>경상권, 부산 호캉스 호텔 찾기</v>
-      </c>
-      <c r="C10" t="str">
-        <v>경상권, 부산 호캉스 호텔 찾기</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
         <v>title.search.gangwon</v>
       </c>
-      <c r="B11" t="str">
-        <v>강원 양양, 속초부터 여수 호텔 찾기</v>
-      </c>
-      <c r="C11" t="str">
-        <v>강원 양양, 속초부터 여수 호텔 찾기</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
         <v>title.hotel.detail</v>
       </c>
-      <c r="B12" t="str">
-        <v>{{hotelName}}</v>
-      </c>
-      <c r="C12" t="str">
-        <v>{{hotelName}}</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
         <v>title.hotel.option</v>
       </c>
-      <c r="B13" t="str">
-        <v>옵션 선택</v>
-      </c>
-      <c r="C13" t="str">
-        <v>옵션 선택</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
         <v>title.hotel.schedule</v>
       </c>
-      <c r="B14" t="str">
-        <v>일정 선택</v>
-      </c>
-      <c r="C14" t="str">
-        <v>일정 선택</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
         <v>title.hotel.payment.default</v>
       </c>
-      <c r="B15" t="str">
-        <v>결제</v>
-      </c>
-      <c r="C15" t="str">
-        <v>결제</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
         <v>title.hotel.payment.result</v>
       </c>
-      <c r="B16" t="str">
-        <v>결제 완료</v>
-      </c>
-      <c r="C16" t="str">
-        <v>결제 완료</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
         <v>title.auth.login</v>
       </c>
-      <c r="B17" t="str">
-        <v>로그인</v>
-      </c>
-      <c r="C17" t="str">
-        <v>로그인</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
         <v>title.auth.register</v>
       </c>
-      <c r="B18" t="str">
-        <v>회원가입</v>
-      </c>
-      <c r="C18" t="str">
-        <v>회원가입</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
         <v>title.auth.info</v>
       </c>
-      <c r="B19" t="str">
-        <v>회원 정보 변경</v>
-      </c>
-      <c r="C19" t="str">
-        <v>회원 정보 변경</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
         <v>title.auth.resetPassword</v>
       </c>
-      <c r="B20" t="str">
-        <v>비밀번호 찾기</v>
-      </c>
-      <c r="C20" t="str">
-        <v>비밀번호 찾기</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
         <v>title.mypage.default</v>
       </c>
-      <c r="B21" t="str">
-        <v>마이페이지</v>
-      </c>
-      <c r="C21" t="str">
-        <v>마이페이지</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
         <v>title.mypage.notification</v>
       </c>
-      <c r="B22" t="str">
-        <v>알림 설정</v>
-      </c>
-      <c r="C22" t="str">
-        <v>알림 설정</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
         <v>title.mypage.faq</v>
       </c>
-      <c r="B23" t="str">
-        <v>자주 묻는 질문</v>
-      </c>
-      <c r="C23" t="str">
-        <v>자주 묻는 질문</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
         <v>title.promotions</v>
       </c>
-      <c r="B24" t="str">
-        <v>프로모션</v>
-      </c>
-      <c r="C24" t="str">
-        <v>프로모션</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
         <v>description.default</v>
       </c>
-      <c r="B25" t="str">
-        <v>호텔 한달살기 No.1, 서울,부산,강릉,여수 호텔 한달살기, 레지던스 호텔 장기투숙부터 호캉스 호텔까지 쉽고 빠르게 호텔 예약하기</v>
-      </c>
-      <c r="C25" t="str">
-        <v>호텔 한달살기 No.1, 서울,부산,강릉,여수 호텔 한달살기, 레지던스 호텔 장기투숙부터 호캉스 호텔까지 쉽고 빠르게 호텔 예약하기</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
         <v>description.promotions</v>
-      </c>
-      <c r="B26" t="str">
-        <v>호텔부터 리조트, 레지던스까지 숙소 예약을 위한 할인 프로모션과 이벤트 혜택 모아보기</v>
-      </c>
-      <c r="C26" t="str">
-        <v>호텔부터 리조트, 레지던스까지 숙소 예약을 위한 할인 프로모션과 이벤트 혜택 모아보기</v>
       </c>
     </row>
   </sheetData>
